--- a/tests/integration/out/ai-and-nanotech-families.xlsx
+++ b/tests/integration/out/ai-and-nanotech-families.xlsx
@@ -1326,7 +1326,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>US;;CA</t>
+          <t>CA;;US</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr"/>
@@ -1454,7 +1454,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>US;;CA</t>
+          <t>CA;;US</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr"/>
@@ -1582,7 +1582,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>US;;CA</t>
+          <t>CA;;US</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr"/>
@@ -1698,7 +1698,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>US;;CA</t>
+          <t>CA;;US</t>
         </is>
       </c>
       <c r="AB10" t="n">
@@ -4880,7 +4880,7 @@
       </c>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>IB;;US</t>
+          <t>US;;IB</t>
         </is>
       </c>
       <c r="AB35" t="n">
@@ -5010,7 +5010,7 @@
       </c>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>IB;;US</t>
+          <t>US;;IB</t>
         </is>
       </c>
       <c r="AB36" t="inlineStr"/>
@@ -5138,7 +5138,7 @@
       </c>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>IL;;US</t>
+          <t>US;;IL</t>
         </is>
       </c>
       <c r="AB37" t="inlineStr"/>

--- a/tests/integration/out/ai-and-nanotech-families.xlsx
+++ b/tests/integration/out/ai-and-nanotech-families.xlsx
@@ -651,7 +651,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>AU;;US</t>
+          <t>US;;AU</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
@@ -775,7 +775,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>AU;;US</t>
+          <t>US;;AU</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>AU;;US</t>
+          <t>US;;AU</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
@@ -1023,7 +1023,7 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>AU;;US</t>
+          <t>US;;AU</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
@@ -1147,7 +1147,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>AU;;US</t>
+          <t>US;;AU</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
@@ -2677,7 +2677,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>CN;;US</t>
+          <t>US;;CN</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
@@ -2801,7 +2801,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>CN;;US</t>
+          <t>US;;CN</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
@@ -4317,7 +4317,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>FR;;EP</t>
+          <t>EP;;FR</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">

--- a/tests/integration/out/ai-and-nanotech-families.xlsx
+++ b/tests/integration/out/ai-and-nanotech-families.xlsx
@@ -1271,7 +1271,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>US;;CA</t>
+          <t>CA;;US</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
@@ -1399,7 +1399,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>US;;CA</t>
+          <t>CA;;US</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
@@ -1527,7 +1527,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>US;;CA</t>
+          <t>CA;;US</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
@@ -1653,7 +1653,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>US;;CA</t>
+          <t>CA;;US</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
@@ -2677,7 +2677,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>US;;CN</t>
+          <t>CN;;US</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
@@ -2801,7 +2801,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>US;;CN</t>
+          <t>CN;;US</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
@@ -4317,7 +4317,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>EP;;FR</t>
+          <t>FR;;EP</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
@@ -4831,7 +4831,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>IB;;US</t>
+          <t>US;;IB</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
@@ -4955,7 +4955,7 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>IB;;US</t>
+          <t>US;;IB</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">

--- a/tests/integration/out/ai-and-nanotech-families.xlsx
+++ b/tests/integration/out/ai-and-nanotech-families.xlsx
@@ -651,7 +651,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>US;;AU</t>
+          <t>AU;;US</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
@@ -775,7 +775,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>US;;AU</t>
+          <t>AU;;US</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>US;;AU</t>
+          <t>AU;;US</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
@@ -1023,7 +1023,7 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>US;;AU</t>
+          <t>AU;;US</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
@@ -1147,7 +1147,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>US;;AU</t>
+          <t>AU;;US</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>CA;;US</t>
+          <t>US;;CA</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
@@ -1399,7 +1399,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>CA;;US</t>
+          <t>US;;CA</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
@@ -1527,7 +1527,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>CA;;US</t>
+          <t>US;;CA</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
@@ -1653,7 +1653,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>CA;;US</t>
+          <t>US;;CA</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
@@ -4317,7 +4317,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>FR;;EP</t>
+          <t>EP;;FR</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
@@ -4831,7 +4831,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>US;;IB</t>
+          <t>IB;;US</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
@@ -4955,7 +4955,7 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>US;;IB</t>
+          <t>IB;;US</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">

--- a/tests/integration/out/ai-and-nanotech-families.xlsx
+++ b/tests/integration/out/ai-and-nanotech-families.xlsx
@@ -3517,13 +3517,13 @@
     <t>US;;CN;;TW</t>
   </si>
   <si>
-    <t>AU;;US</t>
+    <t>US;;AU</t>
   </si>
   <si>
     <t>CA;;US</t>
   </si>
   <si>
-    <t>EP;;FR</t>
+    <t>FR;;EP</t>
   </si>
   <si>
     <t>FR</t>
@@ -3535,7 +3535,7 @@
     <t>US;;IB</t>
   </si>
   <si>
-    <t>US;;IL</t>
+    <t>IL;;US</t>
   </si>
   <si>
     <t>JP</t>

--- a/tests/integration/out/ai-and-nanotech-families.xlsx
+++ b/tests/integration/out/ai-and-nanotech-families.xlsx
@@ -3505,7 +3505,7 @@
     <t>US;;CN</t>
   </si>
   <si>
-    <t>EP;;FR</t>
+    <t>FR;;EP</t>
   </si>
   <si>
     <t>FR</t>
@@ -3514,10 +3514,10 @@
     <t>GB</t>
   </si>
   <si>
-    <t>IB;;US</t>
-  </si>
-  <si>
-    <t>IL;;US</t>
+    <t>US;;IB</t>
+  </si>
+  <si>
+    <t>US;;IL</t>
   </si>
   <si>
     <t>JP</t>

--- a/tests/integration/out/ai-and-nanotech-families.xlsx
+++ b/tests/integration/out/ai-and-nanotech-families.xlsx
@@ -3499,16 +3499,16 @@
     <t>CN;;US;;TW</t>
   </si>
   <si>
-    <t>US;;AU</t>
-  </si>
-  <si>
-    <t>US;;CA</t>
+    <t>AU;;US</t>
+  </si>
+  <si>
+    <t>CA;;US</t>
   </si>
   <si>
     <t>CN;;US</t>
   </si>
   <si>
-    <t>EP;;FR</t>
+    <t>FR;;EP</t>
   </si>
   <si>
     <t>FR</t>
@@ -3520,7 +3520,7 @@
     <t>IB;;US</t>
   </si>
   <si>
-    <t>IL;;US</t>
+    <t>US;;IL</t>
   </si>
   <si>
     <t>JP</t>

--- a/tests/integration/out/ai-and-nanotech-families.xlsx
+++ b/tests/integration/out/ai-and-nanotech-families.xlsx
@@ -1319,7 +1319,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>US;;CA</t>
+          <t>CA;;US</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
@@ -1452,7 +1452,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>US;;CA</t>
+          <t>CA;;US</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
@@ -1585,7 +1585,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>US;;CA</t>
+          <t>CA;;US</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
@@ -1716,7 +1716,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>US;;CA</t>
+          <t>CA;;US</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
@@ -2798,7 +2798,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>US;;CN</t>
+          <t>CN;;US</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
@@ -2927,7 +2927,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>US;;CN</t>
+          <t>CN;;US</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">

--- a/tests/integration/out/ai-and-nanotech-families.xlsx
+++ b/tests/integration/out/ai-and-nanotech-families.xlsx
@@ -662,7 +662,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>US;;AU</t>
+          <t>AU;;US</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
@@ -797,7 +797,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>US;;AU</t>
+          <t>AU;;US</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>US;;AU</t>
+          <t>AU;;US</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>US;;AU</t>
+          <t>AU;;US</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
@@ -1184,7 +1184,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>US;;AU</t>
+          <t>AU;;US</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>CA;;US</t>
+          <t>US;;CA</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
@@ -1452,7 +1452,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>CA;;US</t>
+          <t>US;;CA</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
@@ -1585,7 +1585,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>CA;;US</t>
+          <t>US;;CA</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
@@ -1716,7 +1716,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>CA;;US</t>
+          <t>US;;CA</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
@@ -2798,7 +2798,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>CN;;US</t>
+          <t>US;;CN</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
@@ -2927,7 +2927,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>CN;;US</t>
+          <t>US;;CN</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
@@ -4533,7 +4533,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>EP;;FR</t>
+          <t>FR;;EP</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
